--- a/SCH-STH/Impact assessments/Burkina Faso/2024/oct/bf_2411_sch_ia_3_resultat_selles.xlsx
+++ b/SCH-STH/Impact assessments/Burkina Faso/2024/oct/bf_2411_sch_ia_3_resultat_selles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Burkina Faso\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Burkina Faso\2024\oct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0119CEFB-ABC8-47C7-A230-9EBFF4D2374C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B2C802-CE7D-44E9-B6B3-5B3EB5DEC6A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="210">
   <si>
     <t>type</t>
   </si>
@@ -78,39 +78,12 @@
     <t>yes</t>
   </si>
   <si>
-    <t>select_one drs_list</t>
-  </si>
-  <si>
-    <t>d_drshp</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>select_one ds_list</t>
-  </si>
-  <si>
-    <t>d_district</t>
-  </si>
-  <si>
-    <t>District</t>
-  </si>
-  <si>
-    <t>drs_list = ${d_drshp}</t>
-  </si>
-  <si>
-    <t>select_one csps_list</t>
-  </si>
-  <si>
     <t>d_csps</t>
   </si>
   <si>
     <t>CSPS</t>
   </si>
   <si>
-    <t>ds_list = ${d_district}</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
@@ -147,9 +120,6 @@
     <t xml:space="preserve">Le numéro complet de l'enquété </t>
   </si>
   <si>
-    <t>Code operateur_Codesite_numeroEnqueté</t>
-  </si>
-  <si>
     <t>concat(${d_recorder}, '_', ${d_Code_site} ,'_', ${d_Numero_Enquete})</t>
   </si>
   <si>
@@ -564,17 +534,131 @@
     <t>Wada</t>
   </si>
   <si>
-    <t>bf_202403_sch_ia_3_resultat_selles</t>
-  </si>
-  <si>
-    <t>(BF - Mars 2024) impact schisto - 3. Formulaire Resultats Selles</t>
+    <t>bf_2411_sch_ia_3_resultat_selles</t>
+  </si>
+  <si>
+    <t>(BF - Nov 2024) impact schisto - 3. Formulaire Resultats Selles</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>Commune</t>
+  </si>
+  <si>
+    <t>d_ds</t>
+  </si>
+  <si>
+    <t>d_commune</t>
+  </si>
+  <si>
+    <t>Nom du village</t>
+  </si>
+  <si>
+    <t>col_4</t>
+  </si>
+  <si>
+    <t>Nom de l'école</t>
+  </si>
+  <si>
+    <t>col_5</t>
+  </si>
+  <si>
+    <t>d_Village</t>
+  </si>
+  <si>
+    <t>${d_csps}</t>
+  </si>
+  <si>
+    <t>d_Ecole</t>
+  </si>
+  <si>
+    <t>${d_Ecole}</t>
+  </si>
+  <si>
+    <t>bind::db_get</t>
+  </si>
+  <si>
+    <t>bind::db_filter_by_col_1</t>
+  </si>
+  <si>
+    <t>bind::db_filter_by_col_2</t>
+  </si>
+  <si>
+    <t>bind::db_filter_by_col_3</t>
+  </si>
+  <si>
+    <t>bind::db_filter_by_col_4</t>
+  </si>
+  <si>
+    <t>bind::db_filter_by_col_5</t>
+  </si>
+  <si>
+    <t>col_1</t>
+  </si>
+  <si>
+    <t>col_2</t>
+  </si>
+  <si>
+    <t>col_3</t>
+  </si>
+  <si>
+    <t>col_6</t>
+  </si>
+  <si>
+    <t>${d_ds}</t>
+  </si>
+  <si>
+    <t>${d_commune}</t>
+  </si>
+  <si>
+    <t>${d_Village}</t>
+  </si>
+  <si>
+    <t>calculate</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>begin repeat</t>
+  </si>
+  <si>
+    <t>Enrôlement</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>position(..)</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>end repeat</t>
+  </si>
+  <si>
+    <t>join(' ', ${d_Numero_Enquete_complet})</t>
+  </si>
+  <si>
+    <t>if (${C2} = 1,'',substring-after(${C1},${d_Numero_Enquete_complet}))</t>
+  </si>
+  <si>
+    <t>Cet identifiant a déjà été utilisé dans ce village.</t>
+  </si>
+  <si>
+    <t>not(selected(${C3}, ${d_Numero_Enquete_complet}))</t>
+  </si>
+  <si>
+    <t>bf_ia_k_2411</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -642,16 +726,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -664,8 +738,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -696,8 +789,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor rgb="FFFBE4D5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -720,11 +831,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -743,36 +869,69 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1027,28 +1186,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="F14" sqref="F14:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" customWidth="1"/>
-    <col min="3" max="3" width="57.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="32.5703125" customWidth="1"/>
-    <col min="9" max="9" width="33.7109375" customWidth="1"/>
-    <col min="11" max="11" width="41.140625" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" style="18" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="57.42578125" style="18" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="18" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" style="18" customWidth="1"/>
+    <col min="7" max="7" width="18" style="18" customWidth="1"/>
+    <col min="8" max="8" width="32.5703125" style="18" customWidth="1"/>
+    <col min="9" max="9" width="33.7109375" style="18" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="18"/>
+    <col min="11" max="11" width="41.140625" style="18" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="18"/>
+    <col min="13" max="13" width="13.7109375" style="18" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="29.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" ht="18.75">
+    <row r="1" spans="1:20" s="7" customFormat="1" ht="18.75">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1091,485 +1256,681 @@
       <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="15.75">
+      <c r="O1" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="15.75">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75">
+    <row r="3" spans="1:20" ht="15.75">
       <c r="A3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="T3" s="18" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="15.75">
+      <c r="A4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="O4" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="T4" s="18" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="15.75">
+      <c r="A5" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="C5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="P5" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="T5" s="18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="2" customFormat="1" ht="15.75">
+      <c r="A6" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="J3" t="s">
+      <c r="B6" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="15.75">
-      <c r="A4" s="9" t="s">
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="21"/>
+      <c r="Q6" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="T6" s="18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" s="2" customFormat="1" ht="15.75">
+      <c r="A7" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="21"/>
+      <c r="R7" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="T7" s="18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="47.25">
+      <c r="A8" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="C8" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F8" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10" t="s">
+      <c r="G8" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="15.75">
-      <c r="A5" s="10" t="s">
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="32"/>
+      <c r="S8" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="T8" s="18" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" s="24" customFormat="1" ht="15.75">
+      <c r="A9" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+    </row>
+    <row r="10" spans="1:20" s="24" customFormat="1" ht="15.75">
+      <c r="A10" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="D10" s="26"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="30"/>
+    </row>
+    <row r="11" spans="1:20" s="24" customFormat="1" ht="15.75">
+      <c r="A11" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+    </row>
+    <row r="12" spans="1:20" s="24" customFormat="1" ht="15.75">
+      <c r="A12" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B13" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C13" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10" t="s">
+      <c r="F13" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="47.25">
-      <c r="A6" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="9" t="s">
+    </row>
+    <row r="14" spans="1:20" ht="45">
+      <c r="A14" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C14" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F14" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="I14" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="J14" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10" t="s">
+      <c r="B15" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="J15" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="15"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="10" t="s">
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C16" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="H16" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="F7" t="s">
+      <c r="J16" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="C17" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="J7" t="s">
+      <c r="H17" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="45">
-      <c r="A8" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="10" t="s">
+    <row r="18" spans="1:10">
+      <c r="A18" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="10" t="s">
+      <c r="J18" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="C19" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="H19" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="15"/>
-      <c r="N8" t="s">
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="J20" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
-      <c r="A9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="J9" t="s">
+    <row r="21" spans="1:10">
+      <c r="A21" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
-      <c r="A10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="22" spans="1:10">
+      <c r="A22" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="H22" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="J22" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="14" t="s">
+    <row r="23" spans="1:10">
+      <c r="A23" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="J11" t="s">
+      <c r="C23" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="H23" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="J23" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="24" spans="1:10">
+      <c r="A24" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C24" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="H24" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="J24" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="H12" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="C25" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="H25" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="J25" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
-      <c r="A13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="26" spans="1:10">
+      <c r="A26" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="C26" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H26" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="J26" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="27" spans="1:10">
+      <c r="A27" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C14" t="s">
+      <c r="B27" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="C27" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="J14" t="s">
+      <c r="H27" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="J27" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="28" spans="1:10">
+      <c r="A28" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="H28" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="C15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="J28" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" t="s">
-        <v>110</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="J16" t="s">
+    <row r="29" spans="1:10">
+      <c r="A29" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H29" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="J29" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" t="s">
-        <v>111</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="J17" t="s">
+    <row r="30" spans="1:10" ht="15.4" customHeight="1">
+      <c r="A30" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H30" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="J30" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" t="s">
-        <v>112</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="J18" t="s">
+    <row r="31" spans="1:10">
+      <c r="A31" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="H31" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="J31" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" t="s">
-        <v>113</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="J19" t="s">
+    <row r="32" spans="1:10">
+      <c r="A32" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="H32" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="J32" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="J20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" t="s">
-        <v>65</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="J21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="33" spans="1:14">
+      <c r="A33" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C33" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="J22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" t="s">
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C23" t="s">
+      <c r="B35" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="H23" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="J23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="15.4" customHeight="1">
-      <c r="A24" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" t="s">
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="C24" t="s">
+      <c r="B36" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="H24" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="J24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H25" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="J25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" t="s">
-        <v>76</v>
-      </c>
-      <c r="H26" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="J26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" t="s">
-        <v>79</v>
-      </c>
-      <c r="B28" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B29" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="10"/>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1596,7 +1957,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75">
       <c r="A1" s="4" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -1605,121 +1966,121 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1">
@@ -1727,1129 +2088,1129 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B13" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C13" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" s="20" customFormat="1">
-      <c r="A15" s="19"/>
+    <row r="15" spans="1:7" s="14" customFormat="1">
+      <c r="A15" s="13"/>
     </row>
     <row r="16" spans="1:7" ht="15.75">
       <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D16" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C17" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D17" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B18" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C18" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B19" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C19" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B20" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C20" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B21" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C21" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="20" customFormat="1">
-      <c r="A22" s="19"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="14" customFormat="1">
+      <c r="A22" s="13"/>
     </row>
     <row r="23" spans="1:7" ht="15.75">
       <c r="A23" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B23" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E23" t="s">
-        <v>119</v>
-      </c>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
+        <v>109</v>
+      </c>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="15.75">
       <c r="A24" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B24" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C24" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="E24" t="s">
-        <v>119</v>
-      </c>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
+        <v>109</v>
+      </c>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
     </row>
     <row r="25" spans="1:7" ht="15.75">
       <c r="A25" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B25" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C25" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="E25" t="s">
-        <v>119</v>
-      </c>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
+        <v>109</v>
+      </c>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
     </row>
     <row r="26" spans="1:7" ht="15.75">
       <c r="A26" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B26" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C26" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="E26" t="s">
-        <v>119</v>
-      </c>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
+        <v>109</v>
+      </c>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
     </row>
     <row r="27" spans="1:7" ht="15.75">
       <c r="A27" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B27" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C27" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="E27" t="s">
-        <v>119</v>
-      </c>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
+        <v>109</v>
+      </c>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
     </row>
     <row r="28" spans="1:7" ht="15.75">
       <c r="A28" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B28" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C28" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="E28" t="s">
-        <v>119</v>
-      </c>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
+        <v>109</v>
+      </c>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="15.75">
       <c r="A29" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B29" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C29" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E29" t="s">
-        <v>119</v>
-      </c>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
+        <v>109</v>
+      </c>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
     </row>
     <row r="30" spans="1:7" ht="15.75">
       <c r="A30" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B30" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C30" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E30" t="s">
-        <v>119</v>
-      </c>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
+        <v>109</v>
+      </c>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
     </row>
     <row r="31" spans="1:7" ht="15.75">
       <c r="A31" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B31" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C31" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E31" t="s">
-        <v>119</v>
-      </c>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
+        <v>109</v>
+      </c>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
     </row>
     <row r="32" spans="1:7" ht="15.75">
       <c r="A32" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B32" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C32" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="E32" t="s">
-        <v>119</v>
-      </c>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
+        <v>109</v>
+      </c>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
     </row>
     <row r="33" spans="1:7" ht="15.75">
       <c r="A33" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B33" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C33" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="E33" t="s">
-        <v>116</v>
-      </c>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
+        <v>106</v>
+      </c>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
     </row>
     <row r="34" spans="1:7" ht="15.75">
       <c r="A34" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B34" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C34" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="E34" t="s">
-        <v>116</v>
-      </c>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
+        <v>106</v>
+      </c>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
     </row>
     <row r="35" spans="1:7" ht="15.75">
       <c r="A35" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B35" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C35" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E35" t="s">
-        <v>116</v>
-      </c>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
+        <v>106</v>
+      </c>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
     </row>
     <row r="36" spans="1:7" ht="15.75">
       <c r="A36" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B36" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C36" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="E36" t="s">
-        <v>116</v>
-      </c>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
+        <v>106</v>
+      </c>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
     </row>
     <row r="37" spans="1:7" ht="15.75">
       <c r="A37" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B37" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C37" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E37" t="s">
-        <v>116</v>
-      </c>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
+        <v>106</v>
+      </c>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
     </row>
     <row r="38" spans="1:7" ht="15.75">
       <c r="A38" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B38" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C38" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E38" t="s">
-        <v>116</v>
-      </c>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
+        <v>106</v>
+      </c>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
     </row>
     <row r="39" spans="1:7" ht="15.75">
       <c r="A39" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B39" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C39" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="E39" t="s">
-        <v>116</v>
-      </c>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
+        <v>106</v>
+      </c>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
     </row>
     <row r="40" spans="1:7" ht="15.75">
       <c r="A40" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B40" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C40" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="E40" t="s">
-        <v>116</v>
-      </c>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
+        <v>106</v>
+      </c>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
     </row>
     <row r="41" spans="1:7" ht="15.75">
       <c r="A41" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B41" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C41" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E41" t="s">
-        <v>116</v>
-      </c>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
+        <v>106</v>
+      </c>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
     </row>
     <row r="42" spans="1:7" ht="15.75">
       <c r="A42" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B42" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C42" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E42" t="s">
-        <v>116</v>
-      </c>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
+        <v>106</v>
+      </c>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
     </row>
     <row r="43" spans="1:7" ht="15.75">
       <c r="A43" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B43" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C43" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E43" t="s">
-        <v>117</v>
-      </c>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
+        <v>107</v>
+      </c>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
     </row>
     <row r="44" spans="1:7" ht="15.75">
       <c r="A44" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B44" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C44" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E44" t="s">
-        <v>117</v>
-      </c>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
+        <v>107</v>
+      </c>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
     </row>
     <row r="45" spans="1:7" ht="15.75">
       <c r="A45" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B45" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C45" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="E45" t="s">
-        <v>117</v>
-      </c>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
+        <v>107</v>
+      </c>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
     </row>
     <row r="46" spans="1:7" ht="15.75">
       <c r="A46" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B46" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C46" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E46" t="s">
-        <v>117</v>
-      </c>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
+        <v>107</v>
+      </c>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
     </row>
     <row r="47" spans="1:7" ht="15.75">
       <c r="A47" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B47" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C47" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E47" t="s">
-        <v>117</v>
-      </c>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
+        <v>107</v>
+      </c>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
     </row>
     <row r="48" spans="1:7" ht="15.75">
       <c r="A48" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B48" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C48" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E48" t="s">
-        <v>117</v>
-      </c>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
+        <v>107</v>
+      </c>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
     </row>
     <row r="49" spans="1:7" ht="15.75">
       <c r="A49" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B49" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C49" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="E49" t="s">
-        <v>117</v>
-      </c>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
+        <v>107</v>
+      </c>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
     </row>
     <row r="50" spans="1:7" ht="15.75">
       <c r="A50" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B50" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C50" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="E50" t="s">
-        <v>117</v>
-      </c>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
+        <v>107</v>
+      </c>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
     </row>
     <row r="51" spans="1:7" ht="15.75">
       <c r="A51" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B51" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C51" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="E51" t="s">
-        <v>117</v>
-      </c>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
+        <v>107</v>
+      </c>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
     </row>
     <row r="52" spans="1:7" ht="15.75">
       <c r="A52" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B52" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C52" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E52" t="s">
-        <v>117</v>
-      </c>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
+        <v>107</v>
+      </c>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
     </row>
     <row r="53" spans="1:7" ht="15.75">
       <c r="A53" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B53" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C53" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E53" t="s">
-        <v>118</v>
-      </c>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21"/>
+        <v>108</v>
+      </c>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
     </row>
     <row r="54" spans="1:7" ht="15.75">
       <c r="A54" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B54" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C54" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E54" t="s">
-        <v>118</v>
-      </c>
-      <c r="F54" s="21"/>
-      <c r="G54" s="21"/>
+        <v>108</v>
+      </c>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
     </row>
     <row r="55" spans="1:7" ht="15.75">
       <c r="A55" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B55" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C55" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="E55" t="s">
-        <v>118</v>
-      </c>
-      <c r="F55" s="21"/>
-      <c r="G55" s="21"/>
+        <v>108</v>
+      </c>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
     </row>
     <row r="56" spans="1:7" ht="15.75">
       <c r="A56" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B56" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C56" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="E56" t="s">
-        <v>118</v>
-      </c>
-      <c r="F56" s="21"/>
-      <c r="G56" s="21"/>
+        <v>108</v>
+      </c>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
     </row>
     <row r="57" spans="1:7" ht="15.75">
       <c r="A57" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B57" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C57" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="E57" t="s">
-        <v>118</v>
-      </c>
-      <c r="F57" s="21"/>
-      <c r="G57" s="21"/>
+        <v>108</v>
+      </c>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
     </row>
     <row r="58" spans="1:7" ht="15.75">
       <c r="A58" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B58" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C58" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="E58" t="s">
-        <v>118</v>
-      </c>
-      <c r="F58" s="21"/>
-      <c r="G58" s="21"/>
+        <v>108</v>
+      </c>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
     </row>
     <row r="59" spans="1:7" ht="15.75">
       <c r="A59" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B59" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C59" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="E59" t="s">
-        <v>118</v>
-      </c>
-      <c r="F59" s="21"/>
-      <c r="G59" s="21"/>
+        <v>108</v>
+      </c>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
     </row>
     <row r="60" spans="1:7" ht="15.75">
       <c r="A60" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B60" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C60" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="E60" t="s">
-        <v>118</v>
-      </c>
-      <c r="F60" s="21"/>
-      <c r="G60" s="21"/>
+        <v>108</v>
+      </c>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
     </row>
     <row r="61" spans="1:7" ht="15.75">
       <c r="A61" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B61" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C61" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E61" t="s">
-        <v>118</v>
-      </c>
-      <c r="F61" s="21"/>
-      <c r="G61" s="21"/>
+        <v>108</v>
+      </c>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
     </row>
     <row r="62" spans="1:7" ht="15.75">
       <c r="A62" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B62" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C62" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E62" t="s">
-        <v>118</v>
-      </c>
-      <c r="F62" s="21"/>
-      <c r="G62" s="21"/>
+        <v>108</v>
+      </c>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
     </row>
     <row r="63" spans="1:7" ht="15.75">
       <c r="A63" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B63" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C63" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="E63" t="s">
-        <v>120</v>
-      </c>
-      <c r="F63" s="21"/>
-      <c r="G63" s="21"/>
+        <v>110</v>
+      </c>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
     </row>
     <row r="64" spans="1:7" ht="15.75">
       <c r="A64" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B64" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C64" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="E64" t="s">
-        <v>120</v>
-      </c>
-      <c r="F64" s="21"/>
-      <c r="G64" s="21"/>
+        <v>110</v>
+      </c>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
     </row>
     <row r="65" spans="1:7" ht="15.75">
       <c r="A65" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B65" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C65" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="E65" t="s">
-        <v>120</v>
-      </c>
-      <c r="F65" s="21"/>
-      <c r="G65" s="21"/>
+        <v>110</v>
+      </c>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
     </row>
     <row r="66" spans="1:7" ht="15.75">
       <c r="A66" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B66" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C66" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E66" t="s">
-        <v>120</v>
-      </c>
-      <c r="F66" s="21"/>
-      <c r="G66" s="21"/>
+        <v>110</v>
+      </c>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
     </row>
     <row r="67" spans="1:7" ht="15.75">
       <c r="A67" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B67" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C67" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="E67" t="s">
-        <v>120</v>
-      </c>
-      <c r="F67" s="21"/>
-      <c r="G67" s="21"/>
+        <v>110</v>
+      </c>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
     </row>
     <row r="68" spans="1:7" ht="15.75">
       <c r="A68" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B68" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C68" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="E68" t="s">
-        <v>120</v>
-      </c>
-      <c r="F68" s="21"/>
-      <c r="G68" s="21"/>
+        <v>110</v>
+      </c>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
     </row>
     <row r="69" spans="1:7" ht="15.75">
       <c r="A69" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B69" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C69" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="E69" t="s">
-        <v>120</v>
-      </c>
-      <c r="F69" s="21"/>
-      <c r="G69" s="21"/>
+        <v>110</v>
+      </c>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
     </row>
     <row r="70" spans="1:7" ht="15.75">
       <c r="A70" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B70" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C70" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="E70" t="s">
-        <v>120</v>
-      </c>
-      <c r="F70" s="21"/>
-      <c r="G70" s="21"/>
+        <v>110</v>
+      </c>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
     </row>
     <row r="71" spans="1:7" ht="15.75">
       <c r="A71" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B71" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C71" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E71" t="s">
-        <v>120</v>
-      </c>
-      <c r="F71" s="21"/>
-      <c r="G71" s="21"/>
+        <v>110</v>
+      </c>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
     </row>
     <row r="72" spans="1:7" ht="15.75">
       <c r="A72" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B72" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C72" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="E72" t="s">
-        <v>120</v>
-      </c>
-      <c r="F72" s="21"/>
-      <c r="G72" s="21"/>
+        <v>110</v>
+      </c>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
     </row>
     <row r="73" spans="1:7" ht="15.75">
       <c r="A73" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B73" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C73" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="E73" t="s">
-        <v>121</v>
-      </c>
-      <c r="F73" s="21"/>
-      <c r="G73" s="21"/>
+        <v>111</v>
+      </c>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
     </row>
     <row r="74" spans="1:7" ht="15.75">
       <c r="A74" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B74" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C74" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="E74" t="s">
-        <v>121</v>
-      </c>
-      <c r="F74" s="21"/>
-      <c r="G74" s="21"/>
+        <v>111</v>
+      </c>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
     </row>
     <row r="75" spans="1:7" ht="15.75">
       <c r="A75" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B75" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C75" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="E75" t="s">
-        <v>121</v>
-      </c>
-      <c r="F75" s="21"/>
-      <c r="G75" s="21"/>
+        <v>111</v>
+      </c>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
     </row>
     <row r="76" spans="1:7" ht="15.75">
       <c r="A76" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B76" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C76" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="E76" t="s">
-        <v>121</v>
-      </c>
-      <c r="F76" s="21"/>
-      <c r="G76" s="21"/>
+        <v>111</v>
+      </c>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
     </row>
     <row r="77" spans="1:7" ht="15.75">
       <c r="A77" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B77" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C77" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="E77" t="s">
-        <v>121</v>
-      </c>
-      <c r="F77" s="21"/>
-      <c r="G77" s="21"/>
+        <v>111</v>
+      </c>
+      <c r="F77" s="15"/>
+      <c r="G77" s="15"/>
     </row>
     <row r="78" spans="1:7" ht="15.75">
       <c r="A78" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B78" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C78" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E78" t="s">
-        <v>121</v>
-      </c>
-      <c r="F78" s="21"/>
-      <c r="G78" s="21"/>
+        <v>111</v>
+      </c>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
     </row>
     <row r="79" spans="1:7" ht="15.75">
       <c r="A79" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B79" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="C79" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="E79" t="s">
-        <v>121</v>
-      </c>
-      <c r="F79" s="21"/>
-      <c r="G79" s="21"/>
+        <v>111</v>
+      </c>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B80" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C80" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="E80" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B81" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C81" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E81" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B82" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C82" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E82" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="15.75">
-      <c r="F83" s="21"/>
-      <c r="G83" s="21"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="15"/>
     </row>
     <row r="84" spans="1:7" ht="15.75">
-      <c r="F84" s="21"/>
-      <c r="G84" s="21"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
     </row>
     <row r="85" spans="1:7" ht="15.75">
-      <c r="F85" s="21"/>
-      <c r="G85" s="21"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="15"/>
     </row>
     <row r="86" spans="1:7" ht="15.75">
-      <c r="F86" s="21"/>
-      <c r="G86" s="21"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="15"/>
     </row>
     <row r="87" spans="1:7" ht="15.75">
-      <c r="F87" s="21"/>
-      <c r="G87" s="21"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="15"/>
     </row>
     <row r="88" spans="1:7" ht="15.75">
-      <c r="F88" s="21"/>
-      <c r="G88" s="21"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="15"/>
     </row>
     <row r="89" spans="1:7" ht="15.75">
-      <c r="F89" s="21"/>
-      <c r="G89" s="21"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="15"/>
     </row>
     <row r="90" spans="1:7" ht="15.75">
-      <c r="F90" s="21"/>
-      <c r="G90" s="21"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="15"/>
     </row>
     <row r="91" spans="1:7" ht="15.75">
-      <c r="F91" s="21"/>
-      <c r="G91" s="21"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="15"/>
     </row>
     <row r="92" spans="1:7" ht="15.75">
-      <c r="F92" s="21"/>
-      <c r="G92" s="21"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="15"/>
     </row>
     <row r="93" spans="1:7" ht="15.75">
-      <c r="F93" s="21"/>
-      <c r="G93" s="21"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="15"/>
     </row>
     <row r="94" spans="1:7" ht="15.75">
-      <c r="F94" s="21"/>
-      <c r="G94" s="21"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="15"/>
     </row>
     <row r="95" spans="1:7" ht="15.75">
-      <c r="F95" s="21"/>
-      <c r="G95" s="21"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="15"/>
     </row>
     <row r="96" spans="1:7" ht="15.75">
-      <c r="F96" s="21"/>
-      <c r="G96" s="21"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2862,41 +3223,41 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="65.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="17"/>
+    <col min="1" max="1" width="65.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75">
-      <c r="A1" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>104</v>
+      <c r="A1" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75">
-      <c r="A2" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="D2" s="18" t="s">
+      <c r="A2" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>17</v>
       </c>
     </row>

--- a/SCH-STH/Impact assessments/Burkina Faso/2024/oct/bf_2411_sch_ia_3_resultat_selles.xlsx
+++ b/SCH-STH/Impact assessments/Burkina Faso/2024/oct/bf_2411_sch_ia_3_resultat_selles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Burkina Faso\2024\oct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E31EC28-1CAE-4559-A8FA-F0C4A98C4271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D6EE71-1E34-41F6-B7DB-8AF9851F32E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -333,12 +333,6 @@
     <t>Nombre d'œufs Trichuris trichiura pour la lame B</t>
   </si>
   <si>
-    <t>bf_2411_sch_ia_3_resultat_selles</t>
-  </si>
-  <si>
-    <t>(BF - Nov 2024) impact schisto - 3. Formulaire Resultats Selles</t>
-  </si>
-  <si>
     <t>DS</t>
   </si>
   <si>
@@ -450,7 +444,13 @@
     <t>not(selected(${C3}, ${d_Numero_Enquete_complet}))</t>
   </si>
   <si>
-    <t>bf_ia_k_2411</t>
+    <t>bf_2411_sch_ia_3_resultat_selles_v2</t>
+  </si>
+  <si>
+    <t>(BF - Nov 2024) impact schisto - 3. Formulaire Resultats Selles V2</t>
+  </si>
+  <si>
+    <t>bf_ia_k_2411_2</t>
   </si>
 </sst>
 </file>
@@ -669,11 +669,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -710,17 +706,21 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -977,29 +977,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14:G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="16" customWidth="1"/>
-    <col min="3" max="3" width="57.42578125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="16" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" style="16" customWidth="1"/>
-    <col min="7" max="7" width="18" style="16" customWidth="1"/>
-    <col min="8" max="8" width="32.5703125" style="16" customWidth="1"/>
-    <col min="9" max="9" width="33.7109375" style="16" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="16"/>
-    <col min="11" max="11" width="41.140625" style="16" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="16"/>
-    <col min="13" max="13" width="13.7109375" style="16" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="29.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="1" width="25.85546875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="57.42578125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="18" style="14" customWidth="1"/>
+    <col min="8" max="8" width="32.5703125" style="14" customWidth="1"/>
+    <col min="9" max="9" width="33.7109375" style="14" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="14"/>
+    <col min="11" max="11" width="41.140625" style="14" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="14"/>
+    <col min="13" max="13" width="13.7109375" style="14" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="29.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="7" customFormat="1" ht="18.75">
@@ -1046,22 +1046,22 @@
         <v>13</v>
       </c>
       <c r="O1" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q1" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="R1" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>122</v>
-      </c>
       <c r="T1" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.75">
@@ -1071,10 +1071,10 @@
       <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1083,16 +1083,16 @@
         <v>20</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="J3" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="T3" s="16" t="s">
-        <v>123</v>
+      <c r="C3" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="T3" s="14" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75">
@@ -1100,63 +1100,63 @@
         <v>20</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="O4" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="T4" s="16" t="s">
-        <v>124</v>
+      <c r="C4" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="O4" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="T4" s="14" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.75">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="P5" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="T5" s="16" t="s">
-        <v>125</v>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="P5" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="T5" s="14" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="2" customFormat="1" ht="15.75">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="16" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -1169,23 +1169,23 @@
       </c>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
-      <c r="M6" s="19"/>
+      <c r="M6" s="17"/>
       <c r="Q6" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="T6" s="16" t="s">
-        <v>110</v>
+        <v>112</v>
+      </c>
+      <c r="T6" s="14" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:20" s="2" customFormat="1" ht="15.75">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="16" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
@@ -1198,528 +1198,528 @@
       </c>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
-      <c r="M7" s="19"/>
+      <c r="M7" s="17"/>
       <c r="R7" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="T7" s="16" t="s">
-        <v>112</v>
+        <v>127</v>
+      </c>
+      <c r="T7" s="14" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="47.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="G8" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="30"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="28"/>
       <c r="S8" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="T8" s="16" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" s="22" customFormat="1" ht="15.75">
-      <c r="A9" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" s="20" customFormat="1" ht="15.75">
+      <c r="A9" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+    </row>
+    <row r="10" spans="1:20" s="20" customFormat="1" ht="15.75">
+      <c r="A10" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B10" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="20" t="s">
+      <c r="D10" s="22"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="26"/>
+    </row>
+    <row r="11" spans="1:20" s="20" customFormat="1" ht="15.75">
+      <c r="A11" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+    </row>
+    <row r="12" spans="1:20" s="20" customFormat="1" ht="15.75">
+      <c r="A12" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="45">
+      <c r="A14" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-    </row>
-    <row r="10" spans="1:20" s="22" customFormat="1" ht="15.75">
-      <c r="A10" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="28"/>
-    </row>
-    <row r="11" spans="1:20" s="22" customFormat="1" ht="15.75">
-      <c r="A11" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="20" t="s">
+      <c r="I14" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="H16" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="H19" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="H22" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="H23" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="H24" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="H25" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="H26" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H27" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H28" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="J28" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H29" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15.4" customHeight="1">
+      <c r="A30" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H30" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="J30" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="H31" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H32" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="J32" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-    </row>
-    <row r="12" spans="1:20" s="22" customFormat="1" ht="15.75">
-      <c r="A12" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="45">
-      <c r="A14" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="G14" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="I14" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="J14" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="J15" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="H16" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="J16" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="J17" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="J18" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="H19" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="J19" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H20" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="J20" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="H21" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="J21" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="H22" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="J22" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="H23" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="J23" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="H24" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="J24" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="H25" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="J25" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="H26" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="J26" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="H27" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="J27" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="H28" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="J28" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="H29" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="J29" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="15.4" customHeight="1">
-      <c r="A30" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="H30" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="J30" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="H31" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="J31" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="H32" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="J32" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
-      <c r="A34" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="34"/>
-      <c r="N34" s="34"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="32"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="14" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="14" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="17"/>
+      <c r="A37" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1731,8 +1731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD82"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1942,7 +1942,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1967,11 +1967,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75">
-      <c r="A2" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>103</v>
+      <c r="A2" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>140</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>94</v>
